--- a/DTR_Curves/DTR4.xlsx
+++ b/DTR_Curves/DTR4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Pesquisa\Unicamp\Projeto Petrobras\DTR\DTR_Curves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\DTR\DTR_Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDA7708E-A1DD-48F7-9DC5-2DE578BF92D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41118F-23F3-462D-9012-C19B7AE674D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default Dataset" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -885,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1307,7 @@
         <v>28.908000000000001</v>
       </c>
       <c r="B52">
-        <v>-1.8158000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>29.648</v>
       </c>
       <c r="B53">
-        <v>-4.4524000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>30.286999999999999</v>
       </c>
       <c r="B54">
-        <v>-1.0344E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
